--- a/G18005_兼子凌_ゲーム製作スケジュールver2.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュールver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A6E65F-8D2A-41CB-911A-6D425C81753C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C6BDA-1053-4CFE-8935-65165FF51E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2234,6 +2234,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2272,39 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2589,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D187"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2606,47 +2606,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72" t="s">
+      <c r="A2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
@@ -2660,38 +2660,38 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="69"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2701,12 +2701,12 @@
       <c r="B8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
@@ -3363,15 +3363,15 @@
       <c r="A58" s="24">
         <v>43970</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="85">
+      <c r="F58" s="72">
         <v>1</v>
       </c>
       <c r="G58" s="56" t="s">
@@ -3386,15 +3386,15 @@
       <c r="A59" s="24">
         <v>43971</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="85">
+      <c r="F59" s="72">
         <v>1</v>
       </c>
       <c r="G59" s="3"/>
@@ -3405,15 +3405,15 @@
       <c r="A60" s="24">
         <v>43972</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="85">
+      <c r="F60" s="72">
         <v>1</v>
       </c>
       <c r="G60" s="3"/>
@@ -3424,15 +3424,15 @@
       <c r="A61" s="24">
         <v>43973</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="66" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="85">
+      <c r="F61" s="72">
         <v>1</v>
       </c>
       <c r="G61" s="3"/>
@@ -3443,15 +3443,15 @@
       <c r="A62" s="24">
         <v>43974</v>
       </c>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="66" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="85">
+      <c r="F62" s="72">
         <v>1</v>
       </c>
       <c r="G62" s="3"/>
@@ -3462,15 +3462,15 @@
       <c r="A63" s="24">
         <v>43975</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="67" t="s">
         <v>63</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="85">
+      <c r="F63" s="72">
         <v>0.2</v>
       </c>
       <c r="G63" s="3"/>
@@ -3481,15 +3481,15 @@
       <c r="A64" s="24">
         <v>43976</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="67" t="s">
         <v>63</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="85">
+      <c r="F64" s="72">
         <v>0.5</v>
       </c>
       <c r="G64" s="3"/>
@@ -3500,15 +3500,15 @@
       <c r="A65" s="24">
         <v>43977</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="67" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="85">
+      <c r="F65" s="72">
         <v>0.6</v>
       </c>
       <c r="G65" s="56"/>
@@ -3519,15 +3519,15 @@
       <c r="A66" s="24">
         <v>43978</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="67" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="85">
+      <c r="F66" s="72">
         <v>1</v>
       </c>
       <c r="G66" s="57"/>
@@ -3538,15 +3538,15 @@
       <c r="A67" s="24">
         <v>43979</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="67" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="85">
+      <c r="F67" s="72">
         <v>1</v>
       </c>
       <c r="G67" s="57"/>
@@ -3557,15 +3557,15 @@
       <c r="A68" s="24">
         <v>43980</v>
       </c>
-      <c r="B68" s="77" t="s">
+      <c r="B68" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="66" t="s">
         <v>65</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="85">
+      <c r="F68" s="72">
         <v>1</v>
       </c>
       <c r="G68" s="56" t="s">
@@ -3578,15 +3578,15 @@
       <c r="A69" s="24">
         <v>43981</v>
       </c>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="66" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="85">
+      <c r="F69" s="72">
         <v>0.5</v>
       </c>
       <c r="G69" s="3"/>
@@ -3597,15 +3597,15 @@
       <c r="A70" s="27">
         <v>43982</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="66" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="35"/>
-      <c r="F70" s="86">
+      <c r="F70" s="73">
         <v>1</v>
       </c>
       <c r="G70" s="58"/>
@@ -3616,15 +3616,15 @@
       <c r="A71" s="26">
         <v>43983</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="66" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="87">
+      <c r="F71" s="74">
         <v>1</v>
       </c>
       <c r="G71" s="55"/>
@@ -3637,15 +3637,15 @@
       <c r="A72" s="24">
         <v>43984</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="66" t="s">
         <v>68</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="85">
+      <c r="F72" s="72">
         <v>1</v>
       </c>
       <c r="G72" s="3"/>
@@ -3658,15 +3658,15 @@
       <c r="A73" s="24">
         <v>43985</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="85">
+      <c r="F73" s="72">
         <v>0.2</v>
       </c>
       <c r="G73" s="3"/>
@@ -3679,15 +3679,15 @@
       <c r="A74" s="24">
         <v>43986</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="66" t="s">
         <v>70</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="85">
+      <c r="F74" s="72">
         <v>1</v>
       </c>
       <c r="G74" s="3"/>
@@ -3700,15 +3700,15 @@
       <c r="A75" s="24">
         <v>43987</v>
       </c>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="68" t="s">
         <v>71</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="85">
+      <c r="F75" s="72">
         <v>0</v>
       </c>
       <c r="G75" s="3"/>
@@ -3721,15 +3721,15 @@
       <c r="A76" s="24">
         <v>43988</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="69" t="s">
         <v>72</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="13"/>
-      <c r="F76" s="85">
+      <c r="F76" s="72">
         <v>0.2</v>
       </c>
       <c r="G76" s="3"/>
@@ -3740,15 +3740,15 @@
       <c r="A77" s="24">
         <v>43989</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="66" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="85">
+      <c r="F77" s="72">
         <v>1</v>
       </c>
       <c r="G77" s="3"/>
@@ -3759,15 +3759,15 @@
       <c r="A78" s="24">
         <v>43990</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="70" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="85">
+      <c r="F78" s="72">
         <v>0.8</v>
       </c>
       <c r="G78" s="3"/>
@@ -3778,15 +3778,15 @@
       <c r="A79" s="24">
         <v>43991</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="70" t="s">
         <v>75</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="85">
+      <c r="F79" s="72">
         <v>1</v>
       </c>
       <c r="G79" s="3"/>
@@ -3797,15 +3797,15 @@
       <c r="A80" s="24">
         <v>43992</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="84" t="s">
+      <c r="C80" s="71" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="85">
+      <c r="F80" s="72">
         <v>1</v>
       </c>
       <c r="G80" s="3"/>
@@ -3816,15 +3816,15 @@
       <c r="A81" s="24">
         <v>43993</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="85">
+      <c r="F81" s="72">
         <v>1</v>
       </c>
       <c r="G81" s="3"/>
@@ -3835,15 +3835,15 @@
       <c r="A82" s="24">
         <v>43994</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="84" t="s">
+      <c r="C82" s="71" t="s">
         <v>78</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="13"/>
-      <c r="F82" s="85">
+      <c r="F82" s="72">
         <v>1</v>
       </c>
       <c r="G82" s="3"/>
@@ -3854,15 +3854,15 @@
       <c r="A83" s="24">
         <v>43995</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="70" t="s">
         <v>79</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="85">
+      <c r="F83" s="72">
         <v>0</v>
       </c>
       <c r="G83" s="3"/>
@@ -3873,15 +3873,15 @@
       <c r="A84" s="24">
         <v>43996</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="66" t="s">
         <v>80</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="85">
+      <c r="F84" s="72">
         <v>0</v>
       </c>
       <c r="G84" s="3"/>
@@ -3892,15 +3892,15 @@
       <c r="A85" s="24">
         <v>43997</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="66" t="s">
         <v>80</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="85">
+      <c r="F85" s="72">
         <v>1</v>
       </c>
       <c r="G85" s="56" t="s">
@@ -3915,15 +3915,15 @@
       <c r="A86" s="24">
         <v>43998</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="B86" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="66" t="s">
         <v>81</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="85">
+      <c r="F86" s="72">
         <v>1</v>
       </c>
       <c r="G86" s="3"/>
@@ -3936,15 +3936,15 @@
       <c r="A87" s="24">
         <v>43999</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="66" t="s">
         <v>82</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="85">
+      <c r="F87" s="72">
         <v>1</v>
       </c>
       <c r="G87" s="3"/>
@@ -3957,15 +3957,15 @@
       <c r="A88" s="24">
         <v>44000</v>
       </c>
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="79" t="s">
+      <c r="C88" s="66" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="85">
+      <c r="F88" s="72">
         <v>1</v>
       </c>
       <c r="G88" s="3"/>
@@ -3976,15 +3976,15 @@
       <c r="A89" s="24">
         <v>44001</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="66" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="85">
+      <c r="F89" s="72">
         <v>1</v>
       </c>
       <c r="G89" s="3"/>
@@ -3995,15 +3995,15 @@
       <c r="A90" s="24">
         <v>44002</v>
       </c>
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="70" t="s">
         <v>85</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="85">
+      <c r="F90" s="72">
         <v>0</v>
       </c>
       <c r="G90" s="3"/>
@@ -4014,15 +4014,15 @@
       <c r="A91" s="24">
         <v>44003</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="70" t="s">
         <v>85</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="85">
+      <c r="F91" s="72">
         <v>0</v>
       </c>
       <c r="G91" s="3"/>
@@ -4033,15 +4033,15 @@
       <c r="A92" s="24">
         <v>44004</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="66" t="s">
         <v>86</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="13"/>
-      <c r="F92" s="85">
+      <c r="F92" s="72">
         <v>0</v>
       </c>
       <c r="G92" s="3"/>
@@ -4052,15 +4052,15 @@
       <c r="A93" s="24">
         <v>44005</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="13"/>
-      <c r="F93" s="85">
+      <c r="F93" s="72">
         <v>1</v>
       </c>
       <c r="G93" s="3"/>
@@ -4071,15 +4071,15 @@
       <c r="A94" s="24">
         <v>44006</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C94" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="13"/>
-      <c r="F94" s="85">
+      <c r="F94" s="72">
         <v>1</v>
       </c>
       <c r="G94" s="3"/>
@@ -4090,15 +4090,15 @@
       <c r="A95" s="24">
         <v>44007</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="79" t="s">
+      <c r="C95" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="13"/>
-      <c r="F95" s="85">
+      <c r="F95" s="72">
         <v>1</v>
       </c>
       <c r="G95" s="3"/>
@@ -4109,15 +4109,15 @@
       <c r="A96" s="24">
         <v>44008</v>
       </c>
-      <c r="B96" s="77" t="s">
+      <c r="B96" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="13"/>
-      <c r="F96" s="85">
+      <c r="F96" s="72">
         <v>1</v>
       </c>
       <c r="G96" s="3"/>
@@ -4128,15 +4128,15 @@
       <c r="A97" s="24">
         <v>44009</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="66" t="s">
         <v>88</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="85">
+      <c r="F97" s="72">
         <v>1</v>
       </c>
       <c r="G97" s="3"/>
@@ -4147,15 +4147,15 @@
       <c r="A98" s="24">
         <v>44010</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="79" t="s">
+      <c r="C98" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="13"/>
-      <c r="F98" s="85">
+      <c r="F98" s="72">
         <v>1</v>
       </c>
       <c r="G98" s="3"/>
@@ -4166,15 +4166,15 @@
       <c r="A99" s="24">
         <v>44011</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="85">
+      <c r="F99" s="72">
         <v>1</v>
       </c>
       <c r="G99" s="3"/>
@@ -4185,15 +4185,15 @@
       <c r="A100" s="27">
         <v>44012</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="35"/>
-      <c r="F100" s="86">
+      <c r="F100" s="73">
         <v>1</v>
       </c>
       <c r="G100" s="59" t="s">
@@ -4208,15 +4208,15 @@
       <c r="A101" s="26">
         <v>44013</v>
       </c>
-      <c r="B101" s="77" t="s">
+      <c r="B101" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="33"/>
-      <c r="F101" s="87">
+      <c r="F101" s="74">
         <v>1</v>
       </c>
       <c r="G101" s="55"/>
@@ -4229,15 +4229,15 @@
       <c r="A102" s="24">
         <v>44014</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="79" t="s">
+      <c r="C102" s="66" t="s">
         <v>89</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="85">
+      <c r="F102" s="72">
         <v>1</v>
       </c>
       <c r="G102" s="3"/>
@@ -4250,15 +4250,15 @@
       <c r="A103" s="24">
         <v>44015</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="85">
+      <c r="F103" s="72">
         <v>1</v>
       </c>
       <c r="G103" s="3"/>
@@ -4269,15 +4269,15 @@
       <c r="A104" s="24">
         <v>44016</v>
       </c>
-      <c r="B104" s="77" t="s">
+      <c r="B104" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="85">
+      <c r="F104" s="72">
         <v>1</v>
       </c>
       <c r="G104" s="3"/>
@@ -4288,15 +4288,15 @@
       <c r="A105" s="24">
         <v>44017</v>
       </c>
-      <c r="B105" s="77" t="s">
+      <c r="B105" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="85">
+      <c r="F105" s="72">
         <v>1</v>
       </c>
       <c r="G105" s="3"/>
@@ -4307,15 +4307,15 @@
       <c r="A106" s="24">
         <v>44018</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="85">
+      <c r="F106" s="72">
         <v>1</v>
       </c>
       <c r="G106" s="3"/>
@@ -4326,15 +4326,15 @@
       <c r="A107" s="24">
         <v>44019</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="79" t="s">
+      <c r="C107" s="66" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="85">
+      <c r="F107" s="72">
         <v>1</v>
       </c>
       <c r="G107" s="3"/>
@@ -4345,15 +4345,15 @@
       <c r="A108" s="24">
         <v>44020</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="79" t="s">
+      <c r="C108" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="85">
+      <c r="F108" s="72">
         <v>1</v>
       </c>
       <c r="G108" s="3"/>
@@ -4364,15 +4364,15 @@
       <c r="A109" s="24">
         <v>44021</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="13"/>
-      <c r="F109" s="85">
+      <c r="F109" s="72">
         <v>1</v>
       </c>
       <c r="G109" s="3"/>
@@ -4383,15 +4383,15 @@
       <c r="A110" s="24">
         <v>44022</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="79" t="s">
+      <c r="C110" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="13"/>
-      <c r="F110" s="85">
+      <c r="F110" s="72">
         <v>1</v>
       </c>
       <c r="G110" s="3"/>
@@ -4402,15 +4402,15 @@
       <c r="A111" s="24">
         <v>44023</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C111" s="83" t="s">
+      <c r="C111" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="13"/>
-      <c r="F111" s="85">
+      <c r="F111" s="72">
         <v>1</v>
       </c>
       <c r="G111" s="3"/>
@@ -4421,15 +4421,15 @@
       <c r="A112" s="24">
         <v>44024</v>
       </c>
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="79" t="s">
+      <c r="C112" s="66" t="s">
         <v>91</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="85">
+      <c r="F112" s="72">
         <v>1</v>
       </c>
       <c r="G112" s="3"/>
@@ -4440,15 +4440,15 @@
       <c r="A113" s="24">
         <v>44025</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="13"/>
-      <c r="F113" s="85">
+      <c r="F113" s="72">
         <v>1</v>
       </c>
       <c r="G113" s="3"/>
@@ -4459,15 +4459,15 @@
       <c r="A114" s="24">
         <v>44026</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="85">
+      <c r="F114" s="72">
         <v>1</v>
       </c>
       <c r="G114" s="3"/>
@@ -4478,15 +4478,15 @@
       <c r="A115" s="24">
         <v>44027</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C115" s="79" t="s">
+      <c r="C115" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="85">
+      <c r="F115" s="72">
         <v>1</v>
       </c>
       <c r="G115" s="56" t="s">
@@ -4501,15 +4501,15 @@
       <c r="A116" s="24">
         <v>44028</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C116" s="83" t="s">
+      <c r="C116" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="13"/>
-      <c r="F116" s="85">
+      <c r="F116" s="72">
         <v>1</v>
       </c>
       <c r="G116" s="3"/>
@@ -4522,15 +4522,15 @@
       <c r="A117" s="24">
         <v>44029</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="79" t="s">
+      <c r="C117" s="66" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="85">
+      <c r="F117" s="72">
         <v>1</v>
       </c>
       <c r="G117" s="3"/>
@@ -4543,15 +4543,15 @@
       <c r="A118" s="24">
         <v>44030</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="79" t="s">
+      <c r="C118" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="13"/>
-      <c r="F118" s="85">
+      <c r="F118" s="72">
         <v>1</v>
       </c>
       <c r="G118" s="3"/>
@@ -4562,15 +4562,15 @@
       <c r="A119" s="24">
         <v>44031</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="85">
+      <c r="F119" s="72">
         <v>1</v>
       </c>
       <c r="G119" s="3"/>
@@ -4581,15 +4581,15 @@
       <c r="A120" s="24">
         <v>44032</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="79" t="s">
+      <c r="C120" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="85">
+      <c r="F120" s="72">
         <v>1</v>
       </c>
       <c r="G120" s="3"/>
@@ -4600,15 +4600,15 @@
       <c r="A121" s="24">
         <v>44033</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C121" s="83" t="s">
+      <c r="C121" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="85">
+      <c r="F121" s="72">
         <v>1</v>
       </c>
       <c r="G121" s="3"/>
@@ -4619,15 +4619,15 @@
       <c r="A122" s="24">
         <v>44034</v>
       </c>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C122" s="79" t="s">
+      <c r="C122" s="66" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="85">
+      <c r="F122" s="72">
         <v>1</v>
       </c>
       <c r="G122" s="3"/>
@@ -4638,15 +4638,15 @@
       <c r="A123" s="24">
         <v>44035</v>
       </c>
-      <c r="B123" s="77" t="s">
+      <c r="B123" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="85">
+      <c r="F123" s="72">
         <v>1</v>
       </c>
       <c r="G123" s="3"/>
@@ -4657,15 +4657,15 @@
       <c r="A124" s="24">
         <v>44036</v>
       </c>
-      <c r="B124" s="77" t="s">
+      <c r="B124" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C124" s="79" t="s">
+      <c r="C124" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="85">
+      <c r="F124" s="72">
         <v>1</v>
       </c>
       <c r="G124" s="3"/>
@@ -4676,15 +4676,15 @@
       <c r="A125" s="24">
         <v>44037</v>
       </c>
-      <c r="B125" s="77" t="s">
+      <c r="B125" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="79" t="s">
+      <c r="C125" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="85">
+      <c r="F125" s="72">
         <v>1</v>
       </c>
       <c r="G125" s="3"/>
@@ -4695,15 +4695,15 @@
       <c r="A126" s="24">
         <v>44038</v>
       </c>
-      <c r="B126" s="77" t="s">
+      <c r="B126" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="85">
+      <c r="F126" s="72">
         <v>1</v>
       </c>
       <c r="G126" s="3"/>
@@ -4714,15 +4714,15 @@
       <c r="A127" s="24">
         <v>44039</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="79" t="s">
+      <c r="C127" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="85">
+      <c r="F127" s="72">
         <v>1</v>
       </c>
       <c r="G127" s="3"/>
@@ -4733,15 +4733,15 @@
       <c r="A128" s="24">
         <v>44040</v>
       </c>
-      <c r="B128" s="77" t="s">
+      <c r="B128" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C128" s="79" t="s">
+      <c r="C128" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="85">
+      <c r="F128" s="72">
         <v>1</v>
       </c>
       <c r="G128" s="3"/>
@@ -4752,15 +4752,15 @@
       <c r="A129" s="24">
         <v>44041</v>
       </c>
-      <c r="B129" s="77" t="s">
+      <c r="B129" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="13"/>
-      <c r="F129" s="85">
+      <c r="F129" s="72">
         <v>1</v>
       </c>
       <c r="G129" s="3"/>
@@ -4771,15 +4771,15 @@
       <c r="A130" s="24">
         <v>44042</v>
       </c>
-      <c r="B130" s="77" t="s">
+      <c r="B130" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C130" s="79" t="s">
+      <c r="C130" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="13"/>
-      <c r="F130" s="85">
+      <c r="F130" s="72">
         <v>1</v>
       </c>
       <c r="G130" s="3"/>
@@ -4790,15 +4790,15 @@
       <c r="A131" s="27">
         <v>44043</v>
       </c>
-      <c r="B131" s="77" t="s">
+      <c r="B131" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C131" s="83" t="s">
+      <c r="C131" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="35"/>
-      <c r="F131" s="86">
+      <c r="F131" s="73">
         <v>1</v>
       </c>
       <c r="G131" s="59" t="s">
@@ -4813,15 +4813,15 @@
       <c r="A132" s="26">
         <v>44044</v>
       </c>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="79" t="s">
+      <c r="C132" s="66" t="s">
         <v>95</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="33"/>
-      <c r="F132" s="87">
+      <c r="F132" s="74">
         <v>1</v>
       </c>
       <c r="G132" s="55"/>
@@ -4832,15 +4832,15 @@
       <c r="A133" s="24">
         <v>44045</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="85">
+      <c r="F133" s="72">
         <v>1</v>
       </c>
       <c r="G133" s="3"/>
@@ -4851,15 +4851,15 @@
       <c r="A134" s="24">
         <v>44046</v>
       </c>
-      <c r="B134" s="77" t="s">
+      <c r="B134" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="79" t="s">
+      <c r="C134" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="13"/>
-      <c r="F134" s="85">
+      <c r="F134" s="72">
         <v>1</v>
       </c>
       <c r="G134" s="3"/>
@@ -4872,15 +4872,15 @@
       <c r="A135" s="24">
         <v>44047</v>
       </c>
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="79" t="s">
+      <c r="C135" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="13"/>
-      <c r="F135" s="85">
+      <c r="F135" s="72">
         <v>1</v>
       </c>
       <c r="G135" s="3"/>
@@ -4893,15 +4893,15 @@
       <c r="A136" s="24">
         <v>44048</v>
       </c>
-      <c r="B136" s="77" t="s">
+      <c r="B136" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="83" t="s">
+      <c r="C136" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="85">
+      <c r="F136" s="72">
         <v>1</v>
       </c>
       <c r="G136" s="3"/>
@@ -4912,15 +4912,15 @@
       <c r="A137" s="24">
         <v>44049</v>
       </c>
-      <c r="B137" s="77" t="s">
+      <c r="B137" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C137" s="79" t="s">
+      <c r="C137" s="66" t="s">
         <v>96</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="13"/>
-      <c r="F137" s="85">
+      <c r="F137" s="72">
         <v>1</v>
       </c>
       <c r="G137" s="3"/>
@@ -4931,15 +4931,15 @@
       <c r="A138" s="24">
         <v>44050</v>
       </c>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C138" s="79" t="s">
+      <c r="C138" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="13"/>
-      <c r="F138" s="85">
+      <c r="F138" s="72">
         <v>1</v>
       </c>
       <c r="G138" s="3"/>
@@ -4950,15 +4950,15 @@
       <c r="A139" s="24">
         <v>44051</v>
       </c>
-      <c r="B139" s="77" t="s">
+      <c r="B139" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="79" t="s">
+      <c r="C139" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="85">
+      <c r="F139" s="72">
         <v>1</v>
       </c>
       <c r="G139" s="3"/>
@@ -4969,15 +4969,15 @@
       <c r="A140" s="24">
         <v>44052</v>
       </c>
-      <c r="B140" s="77" t="s">
+      <c r="B140" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C140" s="79" t="s">
+      <c r="C140" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="85">
+      <c r="F140" s="72">
         <v>1</v>
       </c>
       <c r="G140" s="3"/>
@@ -4988,15 +4988,15 @@
       <c r="A141" s="24">
         <v>44053</v>
       </c>
-      <c r="B141" s="77" t="s">
+      <c r="B141" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="83" t="s">
+      <c r="C141" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="85">
+      <c r="F141" s="72">
         <v>1</v>
       </c>
       <c r="G141" s="3"/>
@@ -5007,15 +5007,15 @@
       <c r="A142" s="24">
         <v>44054</v>
       </c>
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C142" s="79" t="s">
+      <c r="C142" s="66" t="s">
         <v>97</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="85">
+      <c r="F142" s="72">
         <v>1</v>
       </c>
       <c r="G142" s="3"/>
@@ -5026,15 +5026,15 @@
       <c r="A143" s="24">
         <v>44055</v>
       </c>
-      <c r="B143" s="77" t="s">
+      <c r="B143" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C143" s="79" t="s">
+      <c r="C143" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="85">
+      <c r="F143" s="72">
         <v>1</v>
       </c>
       <c r="G143" s="3"/>
@@ -5045,15 +5045,15 @@
       <c r="A144" s="24">
         <v>44056</v>
       </c>
-      <c r="B144" s="77" t="s">
+      <c r="B144" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C144" s="79" t="s">
+      <c r="C144" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="85">
+      <c r="F144" s="72">
         <v>1</v>
       </c>
       <c r="G144" s="3"/>
@@ -5064,15 +5064,15 @@
       <c r="A145" s="24">
         <v>44057</v>
       </c>
-      <c r="B145" s="77" t="s">
+      <c r="B145" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C145" s="79" t="s">
+      <c r="C145" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="85">
+      <c r="F145" s="72">
         <v>1</v>
       </c>
       <c r="G145" s="3"/>
@@ -5083,15 +5083,15 @@
       <c r="A146" s="24">
         <v>44058</v>
       </c>
-      <c r="B146" s="77" t="s">
+      <c r="B146" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C146" s="83" t="s">
+      <c r="C146" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="85">
+      <c r="F146" s="72">
         <v>1</v>
       </c>
       <c r="G146" s="3"/>
@@ -5102,15 +5102,15 @@
       <c r="A147" s="24">
         <v>44059</v>
       </c>
-      <c r="B147" s="77" t="s">
+      <c r="B147" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C147" s="79" t="s">
+      <c r="C147" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="85">
+      <c r="F147" s="72">
         <v>1</v>
       </c>
       <c r="G147" s="3"/>
@@ -5121,15 +5121,15 @@
       <c r="A148" s="24">
         <v>44060</v>
       </c>
-      <c r="B148" s="77" t="s">
+      <c r="B148" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C148" s="79" t="s">
+      <c r="C148" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="85">
+      <c r="F148" s="72">
         <v>1</v>
       </c>
       <c r="G148" s="56" t="s">
@@ -5144,15 +5144,15 @@
       <c r="A149" s="24">
         <v>44061</v>
       </c>
-      <c r="B149" s="77" t="s">
+      <c r="B149" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C149" s="79" t="s">
+      <c r="C149" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="13"/>
-      <c r="F149" s="85">
+      <c r="F149" s="72">
         <v>1</v>
       </c>
       <c r="G149" s="3"/>
@@ -5165,15 +5165,15 @@
       <c r="A150" s="24">
         <v>44062</v>
       </c>
-      <c r="B150" s="77" t="s">
+      <c r="B150" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="79" t="s">
+      <c r="C150" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="13"/>
-      <c r="F150" s="85">
+      <c r="F150" s="72">
         <v>1</v>
       </c>
       <c r="G150" s="3"/>
@@ -5186,15 +5186,15 @@
       <c r="A151" s="24">
         <v>44063</v>
       </c>
-      <c r="B151" s="77" t="s">
+      <c r="B151" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C151" s="79" t="s">
+      <c r="C151" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="13"/>
-      <c r="F151" s="85">
+      <c r="F151" s="72">
         <v>1</v>
       </c>
       <c r="G151" s="3"/>
@@ -5205,15 +5205,15 @@
       <c r="A152" s="24">
         <v>44064</v>
       </c>
-      <c r="B152" s="77" t="s">
+      <c r="B152" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C152" s="79" t="s">
+      <c r="C152" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="13"/>
-      <c r="F152" s="85">
+      <c r="F152" s="72">
         <v>1</v>
       </c>
       <c r="G152" s="3"/>
@@ -5224,15 +5224,15 @@
       <c r="A153" s="24">
         <v>44065</v>
       </c>
-      <c r="B153" s="77" t="s">
+      <c r="B153" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="13"/>
-      <c r="F153" s="85">
+      <c r="F153" s="72">
         <v>1</v>
       </c>
       <c r="G153" s="3"/>
@@ -5243,15 +5243,15 @@
       <c r="A154" s="24">
         <v>44066</v>
       </c>
-      <c r="B154" s="77" t="s">
+      <c r="B154" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C154" s="79" t="s">
+      <c r="C154" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="13"/>
-      <c r="F154" s="85">
+      <c r="F154" s="72">
         <v>1</v>
       </c>
       <c r="G154" s="3"/>
@@ -5262,15 +5262,15 @@
       <c r="A155" s="24">
         <v>44067</v>
       </c>
-      <c r="B155" s="77" t="s">
+      <c r="B155" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="79" t="s">
+      <c r="C155" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="13"/>
-      <c r="F155" s="85">
+      <c r="F155" s="72">
         <v>1</v>
       </c>
       <c r="G155" s="3"/>
@@ -5281,15 +5281,15 @@
       <c r="A156" s="24">
         <v>44068</v>
       </c>
-      <c r="B156" s="77" t="s">
+      <c r="B156" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C156" s="79" t="s">
+      <c r="C156" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="13"/>
-      <c r="F156" s="85">
+      <c r="F156" s="72">
         <v>1</v>
       </c>
       <c r="G156" s="3"/>
@@ -5300,15 +5300,15 @@
       <c r="A157" s="24">
         <v>44069</v>
       </c>
-      <c r="B157" s="77" t="s">
+      <c r="B157" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="79" t="s">
+      <c r="C157" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="13"/>
-      <c r="F157" s="85">
+      <c r="F157" s="72">
         <v>1</v>
       </c>
       <c r="G157" s="3"/>
@@ -5319,15 +5319,15 @@
       <c r="A158" s="24">
         <v>44070</v>
       </c>
-      <c r="B158" s="77" t="s">
+      <c r="B158" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="79" t="s">
+      <c r="C158" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="13"/>
-      <c r="F158" s="85">
+      <c r="F158" s="72">
         <v>1</v>
       </c>
       <c r="G158" s="3"/>
@@ -5338,15 +5338,15 @@
       <c r="A159" s="24">
         <v>44071</v>
       </c>
-      <c r="B159" s="77" t="s">
+      <c r="B159" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="79" t="s">
+      <c r="C159" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="85">
+      <c r="F159" s="72">
         <v>1</v>
       </c>
       <c r="G159" s="3"/>
@@ -5357,15 +5357,15 @@
       <c r="A160" s="24">
         <v>44072</v>
       </c>
-      <c r="B160" s="77" t="s">
+      <c r="B160" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C160" s="79" t="s">
+      <c r="C160" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="85">
+      <c r="F160" s="72">
         <v>1</v>
       </c>
       <c r="G160" s="3"/>
@@ -5376,15 +5376,15 @@
       <c r="A161" s="24">
         <v>44073</v>
       </c>
-      <c r="B161" s="77" t="s">
+      <c r="B161" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C161" s="79" t="s">
+      <c r="C161" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="85">
+      <c r="F161" s="72">
         <v>1</v>
       </c>
       <c r="G161" s="3"/>
@@ -5395,15 +5395,15 @@
       <c r="A162" s="27">
         <v>44074</v>
       </c>
-      <c r="B162" s="77" t="s">
+      <c r="B162" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="79" t="s">
+      <c r="C162" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D162" s="34"/>
       <c r="E162" s="35"/>
-      <c r="F162" s="85">
+      <c r="F162" s="72">
         <v>1</v>
       </c>
       <c r="G162" s="59" t="s">
@@ -5418,15 +5418,15 @@
       <c r="A163" s="23">
         <v>44075</v>
       </c>
-      <c r="B163" s="77" t="s">
+      <c r="B163" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="18"/>
-      <c r="F163" s="85">
+      <c r="F163" s="72">
         <v>1</v>
       </c>
       <c r="G163" s="4"/>
@@ -5439,15 +5439,15 @@
       <c r="A164" s="24">
         <v>44076</v>
       </c>
-      <c r="B164" s="77" t="s">
+      <c r="B164" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="79" t="s">
+      <c r="C164" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="85">
+      <c r="F164" s="72">
         <v>1</v>
       </c>
       <c r="G164" s="3"/>
@@ -5460,15 +5460,17 @@
       <c r="A165" s="24">
         <v>44077</v>
       </c>
-      <c r="B165" s="77" t="s">
+      <c r="B165" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="79" t="s">
+      <c r="C165" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="43"/>
+      <c r="F165" s="72">
+        <v>1</v>
+      </c>
       <c r="G165" s="3"/>
       <c r="H165" s="13"/>
       <c r="I165" s="8"/>
@@ -5477,15 +5479,17 @@
       <c r="A166" s="24">
         <v>44078</v>
       </c>
-      <c r="B166" s="77" t="s">
+      <c r="B166" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="79" t="s">
+      <c r="C166" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="43"/>
+      <c r="F166" s="72">
+        <v>1</v>
+      </c>
       <c r="G166" s="3"/>
       <c r="H166" s="13"/>
       <c r="I166" s="8"/>
@@ -5494,15 +5498,17 @@
       <c r="A167" s="24">
         <v>44079</v>
       </c>
-      <c r="B167" s="77" t="s">
+      <c r="B167" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="79" t="s">
+      <c r="C167" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="43"/>
+      <c r="F167" s="72">
+        <v>1</v>
+      </c>
       <c r="G167" s="3"/>
       <c r="H167" s="13"/>
       <c r="I167" s="8"/>
@@ -5511,15 +5517,17 @@
       <c r="A168" s="24">
         <v>44080</v>
       </c>
-      <c r="B168" s="77" t="s">
+      <c r="B168" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C168" s="79" t="s">
+      <c r="C168" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="43"/>
+      <c r="F168" s="72">
+        <v>1</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="H168" s="13"/>
       <c r="I168" s="8"/>
@@ -5528,15 +5536,17 @@
       <c r="A169" s="24">
         <v>44081</v>
       </c>
-      <c r="B169" s="77" t="s">
+      <c r="B169" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="79" t="s">
+      <c r="C169" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="13"/>
-      <c r="F169" s="43"/>
+      <c r="F169" s="72">
+        <v>1</v>
+      </c>
       <c r="G169" s="3"/>
       <c r="H169" s="13"/>
       <c r="I169" s="8"/>
@@ -5545,15 +5555,17 @@
       <c r="A170" s="24">
         <v>44082</v>
       </c>
-      <c r="B170" s="77" t="s">
+      <c r="B170" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="79" t="s">
+      <c r="C170" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="13"/>
-      <c r="F170" s="43"/>
+      <c r="F170" s="72">
+        <v>1</v>
+      </c>
       <c r="G170" s="3"/>
       <c r="H170" s="13"/>
       <c r="I170" s="8"/>
@@ -5562,10 +5574,10 @@
       <c r="A171" s="24">
         <v>44083</v>
       </c>
-      <c r="B171" s="77" t="s">
+      <c r="B171" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="79" t="s">
+      <c r="C171" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D171" s="12"/>
@@ -5579,10 +5591,10 @@
       <c r="A172" s="24">
         <v>44084</v>
       </c>
-      <c r="B172" s="77" t="s">
+      <c r="B172" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="79" t="s">
+      <c r="C172" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D172" s="12"/>
@@ -5596,10 +5608,10 @@
       <c r="A173" s="24">
         <v>44085</v>
       </c>
-      <c r="B173" s="77" t="s">
+      <c r="B173" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="79" t="s">
+      <c r="C173" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D173" s="12"/>
@@ -5613,10 +5625,10 @@
       <c r="A174" s="24">
         <v>44086</v>
       </c>
-      <c r="B174" s="77" t="s">
+      <c r="B174" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C174" s="79" t="s">
+      <c r="C174" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D174" s="12"/>
@@ -5630,10 +5642,10 @@
       <c r="A175" s="24">
         <v>44087</v>
       </c>
-      <c r="B175" s="77" t="s">
+      <c r="B175" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C175" s="79" t="s">
+      <c r="C175" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D175" s="12"/>
@@ -5647,10 +5659,10 @@
       <c r="A176" s="24">
         <v>44088</v>
       </c>
-      <c r="B176" s="77" t="s">
+      <c r="B176" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="77" t="s">
+      <c r="C176" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D176" s="12"/>
@@ -5666,10 +5678,10 @@
       <c r="A177" s="24">
         <v>44089</v>
       </c>
-      <c r="B177" s="77" t="s">
+      <c r="B177" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C177" s="77" t="s">
+      <c r="C177" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D177" s="12"/>
@@ -5687,10 +5699,10 @@
       <c r="A178" s="24">
         <v>44090</v>
       </c>
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="77" t="s">
+      <c r="C178" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D178" s="12"/>
@@ -5706,10 +5718,10 @@
       <c r="A179" s="24">
         <v>44091</v>
       </c>
-      <c r="B179" s="77" t="s">
+      <c r="B179" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C179" s="77" t="s">
+      <c r="C179" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D179" s="12"/>
@@ -5725,10 +5737,10 @@
       <c r="A180" s="24">
         <v>44092</v>
       </c>
-      <c r="B180" s="77" t="s">
+      <c r="B180" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C180" s="77" t="s">
+      <c r="C180" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D180" s="12"/>
@@ -5744,10 +5756,10 @@
       <c r="A181" s="24">
         <v>44093</v>
       </c>
-      <c r="B181" s="77" t="s">
+      <c r="B181" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C181" s="77" t="s">
+      <c r="C181" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D181" s="12"/>
@@ -5763,10 +5775,10 @@
       <c r="A182" s="24">
         <v>44094</v>
       </c>
-      <c r="B182" s="77" t="s">
+      <c r="B182" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C182" s="77" t="s">
+      <c r="C182" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D182" s="12"/>
@@ -5782,10 +5794,10 @@
       <c r="A183" s="24">
         <v>44095</v>
       </c>
-      <c r="B183" s="77" t="s">
+      <c r="B183" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C183" s="77" t="s">
+      <c r="C183" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D183" s="12"/>
@@ -5803,10 +5815,10 @@
       <c r="A184" s="24">
         <v>44096</v>
       </c>
-      <c r="B184" s="77" t="s">
+      <c r="B184" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C184" s="77" t="s">
+      <c r="C184" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D184" s="12"/>
@@ -5824,10 +5836,10 @@
       <c r="A185" s="24">
         <v>44097</v>
       </c>
-      <c r="B185" s="77" t="s">
+      <c r="B185" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C185" s="77" t="s">
+      <c r="C185" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D185" s="12"/>
@@ -5845,10 +5857,10 @@
       <c r="A186" s="24">
         <v>44098</v>
       </c>
-      <c r="B186" s="77" t="s">
+      <c r="B186" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C186" s="77" t="s">
+      <c r="C186" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D186" s="12"/>
@@ -5866,10 +5878,10 @@
       <c r="A187" s="27">
         <v>44099</v>
       </c>
-      <c r="B187" s="77" t="s">
+      <c r="B187" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C187" s="77" t="s">
+      <c r="C187" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D187" s="34"/>
@@ -5910,18 +5922,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6116,18 +6128,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41381DB9-2969-4929-9F06-ACF7F69E6725}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408F84C8-D862-411B-8C59-F45F5A195103}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408F84C8-D862-411B-8C59-F45F5A195103}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41381DB9-2969-4929-9F06-ACF7F69E6725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/G18005_兼子凌_ゲーム製作スケジュールver2.xlsx
+++ b/G18005_兼子凌_ゲーム製作スケジュールver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\アジ\Documents\授業\3年授業\前期ゲーム製作\SansuBattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C6BDA-1053-4CFE-8935-65165FF51E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A4810E-6C6A-4596-8DEC-6EA8308F2982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+      <selection activeCell="F170" sqref="F170:F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5582,7 +5582,9 @@
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="13"/>
-      <c r="F171" s="43"/>
+      <c r="F171" s="72">
+        <v>1</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="H171" s="13"/>
       <c r="I171" s="8"/>
@@ -5922,18 +5924,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6128,18 +6130,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408F84C8-D862-411B-8C59-F45F5A195103}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41381DB9-2969-4929-9F06-ACF7F69E6725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41381DB9-2969-4929-9F06-ACF7F69E6725}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408F84C8-D862-411B-8C59-F45F5A195103}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
